--- a/SP_Sklad/Rep/RepMatRest.xlsx
+++ b/SP_Sklad/Rep/RepMatRest.xlsx
@@ -2315,21 +2315,21 @@
         <v>17</v>
       </c>
       <c r="I41" s="31">
-        <v>2448</v>
+        <v>1950</v>
       </c>
       <c r="J41" s="31">
         <v>0</v>
       </c>
       <c r="K41" s="31">
         <f>I41-J41</f>
-        <v>2448</v>
+        <v>1950</v>
       </c>
       <c r="L41" s="32">
-        <v>1.817</v>
+        <v>1.0021</v>
       </c>
       <c r="M41" s="33">
         <f>I41*L41</f>
-        <v>4448.0159999999996</v>
+        <v>1954.095</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -2540,7 +2540,7 @@
       <c r="L48" s="39"/>
       <c r="M48" s="40">
         <f>SUM(M41:M47)</f>
-        <v>16148.016</v>
+        <v>13654.095000000001</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
